--- a/files/Template.xlsx
+++ b/files/Template.xlsx
@@ -881,27 +881,6 @@
     </r>
   </si>
   <si>
-    <t>18/12/2018</t>
-  </si>
-  <si>
-    <t>19/12/2019</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mẫu ngày </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(dd/mm/yyyy)</t>
-    </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -936,6 +915,27 @@
   </si>
   <si>
     <t>banh,deo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mẫu ngày </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(dd-mm-yyyy)</t>
+    </r>
+  </si>
+  <si>
+    <t>18-12-2018</t>
+  </si>
+  <si>
+    <t>19-12-2019</t>
   </si>
 </sst>
 </file>
@@ -1858,43 +1858,13 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="29" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="29" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1907,6 +1877,45 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1927,15 +1936,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2246,9 +2246,9 @@
   </sheetPr>
   <dimension ref="A1:ALZ10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V10" sqref="V10"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,11 +2338,11 @@
       <c r="S1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="89" t="s">
-        <v>69</v>
-      </c>
-      <c r="U1" s="88" t="s">
-        <v>68</v>
+      <c r="T1" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="65" t="s">
+        <v>65</v>
       </c>
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
@@ -2357,44 +2357,44 @@
       <c r="A2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="76" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="67" t="s">
+      <c r="J2" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="67" t="s">
+      <c r="K2" s="76" t="s">
         <v>29</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="62" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N2" s="62" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>30</v>
@@ -2405,14 +2405,14 @@
       <c r="Q2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="80" t="s">
+      <c r="R2" s="70" t="s">
         <v>32</v>
       </c>
       <c r="S2" s="72" t="s">
         <v>33</v>
       </c>
       <c r="T2" s="72" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>34</v>
@@ -2427,41 +2427,41 @@
       <c r="AJ2" s="5"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="68"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="73"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="78" t="s">
+      <c r="F3" s="75"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="68" t="s">
+      <c r="M3" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="68" t="s">
+      <c r="N3" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="68" t="s">
+      <c r="O3" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="68" t="s">
+      <c r="P3" s="71" t="s">
         <v>39</v>
       </c>
       <c r="Q3" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="80"/>
+      <c r="R3" s="70"/>
       <c r="S3" s="73"/>
       <c r="T3" s="73"/>
-      <c r="U3" s="79" t="s">
+      <c r="U3" s="69" t="s">
         <v>41</v>
       </c>
       <c r="AC3" s="5"/>
@@ -2474,27 +2474,27 @@
       <c r="AJ3" s="5"/>
     </row>
     <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="68"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="73"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
       <c r="Q4" s="73"/>
-      <c r="R4" s="80"/>
+      <c r="R4" s="70"/>
       <c r="S4" s="73"/>
       <c r="T4" s="73"/>
-      <c r="U4" s="79"/>
+      <c r="U4" s="69"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
@@ -2505,33 +2505,33 @@
       <c r="AJ4" s="5"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="68"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="73"/>
-      <c r="F5" s="66"/>
+      <c r="F5" s="75"/>
       <c r="G5" s="29" t="s">
         <v>42</v>
       </c>
       <c r="H5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="77"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
       <c r="Q5" s="73"/>
       <c r="R5" s="29" t="s">
         <v>44</v>
       </c>
       <c r="S5" s="73"/>
       <c r="T5" s="73"/>
-      <c r="U5" s="79"/>
+      <c r="U5" s="69"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
@@ -2579,10 +2579,10 @@
         <v>52</v>
       </c>
       <c r="M6" s="63" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N6" s="63" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="O6" s="19"/>
       <c r="P6" s="26" t="s">
@@ -2597,8 +2597,8 @@
       <c r="S6" s="28">
         <v>0.25</v>
       </c>
-      <c r="T6" s="90" t="s">
-        <v>71</v>
+      <c r="T6" s="67" t="s">
+        <v>68</v>
       </c>
       <c r="U6" s="30" t="s">
         <v>55</v>
@@ -2667,16 +2667,6 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:W6"/>
   <mergeCells count="21">
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="Q3:Q5"/>
-    <mergeCell ref="T2:T5"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="J2:J5"/>
     <mergeCell ref="K2:K5"/>
@@ -2688,6 +2678,16 @@
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I5"/>
     <mergeCell ref="G2:G4"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="Q3:Q5"/>
+    <mergeCell ref="T2:T5"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 B2:C2 L1:L2 U2">
@@ -2735,13 +2735,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="87"/>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="84" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="37" t="s">
@@ -2749,7 +2749,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="34">
         <f>COUNTA(B4:B614)</f>
         <v>0</v>
@@ -5200,12 +5200,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -6759,10 +6759,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="87"/>
+      <c r="B1" s="90"/>
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
